--- a/public/uploads/excel/student-import.xlsx
+++ b/public/uploads/excel/student-import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsh\Desktop\prim document\school import test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5BB481-ABF8-41A1-8C99-3E4D012A61B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664A1181-321A-4C84-B164-E48BBC70381B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19200" yWindow="0" windowWidth="19420" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -847,7 +847,7 @@
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
